--- a/testing/xlsx/main.xlsx
+++ b/testing/xlsx/main.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Documents\KB Calculate\testing\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brbb0\Documents\Delo\Bučar\KB-Calculate\testing\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BCE684-BD0B-478F-B127-28C5804097DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="podatki" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -393,21 +394,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
